--- a/データ.xlsx
+++ b/データ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\MicrophoneLevelLogger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CA5340-8744-4500-ACD9-D4D2927428BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B108D3F-3059-499B-BD0C-DEBAD5C10758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24900" yWindow="3210" windowWidth="30990" windowHeight="23370" xr2:uid="{D62692A6-2D1C-4E86-AC54-CA55A0F9CE04}"/>
+    <workbookView xWindow="17235" yWindow="3345" windowWidth="30990" windowHeight="23370" xr2:uid="{D62692A6-2D1C-4E86-AC54-CA55A0F9CE04}"/>
   </bookViews>
   <sheets>
     <sheet name="評価機器 購入情報" sheetId="2" r:id="rId1"/>
@@ -1350,7 +1350,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/データ.xlsx
+++ b/データ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\MicrophoneLevelLogger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B108D3F-3059-499B-BD0C-DEBAD5C10758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897ACB3A-E182-47C2-B34C-4E67125634C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17235" yWindow="3345" windowWidth="30990" windowHeight="23370" xr2:uid="{D62692A6-2D1C-4E86-AC54-CA55A0F9CE04}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D62692A6-2D1C-4E86-AC54-CA55A0F9CE04}"/>
   </bookViews>
   <sheets>
     <sheet name="評価機器 購入情報" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="188">
   <si>
     <t>タイプ</t>
     <phoneticPr fontId="1"/>
@@ -820,6 +820,38 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=koYAdkSEKRA&amp;t=240s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Engage 50 II</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tradeinn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.tradeinn.com/techinn/ja/gn-%E3%83%98%E3%83%83%E3%83%89%E3%83%9B%E3%83%B3-jabra-engage-50-ii-usb-a/139430146/p?utm_source=google_products&amp;utm_medium=merchant&amp;id_producte=17985695&amp;country=jp&amp;gad=1&amp;gclid=CjwKCAjw9pGjBhB-EiwAa5jl3ApZNWvZBjzM7kTmOcdKvBpHWI25bFHyTNYcSZMpNg5LIJO3y5RJNRoCN_gQAvD_BwE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ATH-M50xSTS-USB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/Audio-Technica-%E3%82%AA%E3%83%BC%E3%83%87%E3%82%A3%E3%82%AA%E3%83%86%E3%82%AF%E3%83%8B%E3%82%AB-%E3%82%B9%E3%83%88%E3%83%AA%E3%83%BC%E3%83%9F%E3%83%B3%E3%82%B0%E3%83%98%E3%83%83%E3%83%89%E3%82%BB%E3%83%83%E3%83%88-ATH-M50xSTS-USB/dp/B0BRP7SW25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エレコム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HS-EP101UNCBK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/gp/product/B0BKZ1P229/ref=ppx_yo_dt_b_asin_title_o01_s00?ie=UTF8&amp;psc=1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -962,8 +994,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D95B23E-1360-4D23-8FB9-41EF3ED67387}" name="テーブル7" displayName="テーブル7" ref="A1:H23" totalsRowCount="1">
-  <autoFilter ref="A1:H22" xr:uid="{478DC918-AA04-45C2-8395-65EE18C98D14}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D95B23E-1360-4D23-8FB9-41EF3ED67387}" name="テーブル7" displayName="テーブル7" ref="A1:H26" totalsRowCount="1">
+  <autoFilter ref="A1:H25" xr:uid="{478DC918-AA04-45C2-8395-65EE18C98D14}"/>
   <tableColumns count="8">
     <tableColumn id="7" xr3:uid="{FBAB89E6-919D-4589-A3E1-4436B80B0023}" name="タイプ" totalsRowFunction="count"/>
     <tableColumn id="1" xr3:uid="{0E2071E5-90CD-4FFC-8765-6AB30A904584}" name="接続"/>
@@ -1347,10 +1379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C03CB1-1160-44D1-AB76-B119F97AD8A7}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1575,25 +1607,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="E9" s="2">
-        <v>12980</v>
+        <v>29040</v>
       </c>
       <c r="F9" s="2">
-        <v>10980</v>
+        <v>22884</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>32</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -1601,77 +1633,77 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>183</v>
       </c>
       <c r="E10" s="2">
-        <v>22880</v>
+        <v>27000</v>
       </c>
       <c r="F10" s="2">
-        <v>15000</v>
+        <v>27000</v>
       </c>
       <c r="G10" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>35</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2">
-        <v>1470</v>
+        <v>12980</v>
       </c>
       <c r="F11" s="2">
-        <v>1470</v>
+        <v>10980</v>
       </c>
       <c r="G11" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2">
-        <v>4480</v>
+        <v>22880</v>
       </c>
       <c r="F12" s="2">
-        <v>4480</v>
+        <v>15000</v>
       </c>
       <c r="G12" t="s">
         <v>20</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -1682,74 +1714,74 @@
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2">
-        <v>7255</v>
+        <v>1470</v>
       </c>
       <c r="F13" s="2">
-        <v>6000</v>
+        <v>1470</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2">
-        <v>2780</v>
+        <v>4480</v>
       </c>
       <c r="F14" s="2">
-        <v>2780</v>
+        <v>4480</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E15" s="2">
-        <v>5280</v>
+        <v>7255</v>
       </c>
       <c r="F15" s="2">
-        <v>3255</v>
+        <v>6000</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
@@ -1757,25 +1789,25 @@
         <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E16" s="2">
-        <v>26800</v>
+        <v>2780</v>
       </c>
       <c r="F16" s="2">
-        <v>22600</v>
+        <v>2780</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
@@ -1783,25 +1815,25 @@
         <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E17" s="2">
-        <v>8980</v>
+        <v>5280</v>
       </c>
       <c r="F17" s="2">
-        <v>4941</v>
+        <v>3255</v>
       </c>
       <c r="G17" t="s">
         <v>20</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
@@ -1809,25 +1841,25 @@
         <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>185</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>186</v>
       </c>
       <c r="E18" s="2">
-        <v>8480</v>
+        <v>11980</v>
       </c>
       <c r="F18" s="2">
-        <v>5752</v>
+        <v>6600</v>
       </c>
       <c r="G18" t="s">
         <v>20</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>52</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
@@ -1838,88 +1870,166 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E19" s="2">
-        <v>12980</v>
+        <v>26800</v>
       </c>
       <c r="F19" s="2">
-        <v>12980</v>
+        <v>22600</v>
       </c>
       <c r="G19" t="s">
         <v>20</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E20" s="2">
-        <v>3380</v>
+        <v>8980</v>
       </c>
       <c r="F20" s="2">
-        <v>2527</v>
+        <v>4941</v>
       </c>
       <c r="G20" t="s">
         <v>20</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E21" s="2">
-        <v>4981</v>
+        <v>8480</v>
       </c>
       <c r="F21" s="2">
-        <v>4981</v>
+        <v>5752</v>
       </c>
       <c r="G21" t="s">
         <v>20</v>
       </c>
       <c r="H21" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="2">
+        <v>12980</v>
+      </c>
+      <c r="F22" s="2">
+        <v>12980</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="2">
+        <v>3380</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2527</v>
+      </c>
+      <c r="G23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="2">
+        <v>4981</v>
+      </c>
+      <c r="F24" s="2">
+        <v>4981</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26">
         <f>SUBTOTAL(103,テーブル7[タイプ])</f>
-        <v>20</v>
-      </c>
-      <c r="E23" s="2">
+        <v>23</v>
+      </c>
+      <c r="E26" s="2">
         <f>SUBTOTAL(109,テーブル7[標準価格])</f>
-        <v>154612</v>
-      </c>
-      <c r="F23" s="2">
+        <v>222632</v>
+      </c>
+      <c r="F26" s="2">
         <f>SUBTOTAL(109,テーブル7[購入価格])</f>
-        <v>123363.4</v>
+        <v>179847.4</v>
       </c>
     </row>
   </sheetData>
@@ -1928,28 +2038,31 @@
     <hyperlink ref="H3" r:id="rId1" xr:uid="{9AC914E1-642F-4768-BFCE-25F1ED078329}"/>
     <hyperlink ref="H2" r:id="rId2" xr:uid="{F217FABD-36FD-4E1D-8977-86A8D1A183F0}"/>
     <hyperlink ref="H5" r:id="rId3" xr:uid="{B4864370-A041-4A3F-8E47-FA8006A953E5}"/>
-    <hyperlink ref="H13" r:id="rId4" xr:uid="{5AEE4637-8341-459E-A2B6-9E0CCDFF60C0}"/>
+    <hyperlink ref="H15" r:id="rId4" xr:uid="{5AEE4637-8341-459E-A2B6-9E0CCDFF60C0}"/>
     <hyperlink ref="H8" r:id="rId5" display="https://www.amazon.co.jp/gp/product/B08V9BSMVL" xr:uid="{59A3D80A-B513-4002-AA09-83415F2B293E}"/>
     <hyperlink ref="H7" r:id="rId6" display="https://www.amazon.co.jp/gp/product/B074XT4FLZ" xr:uid="{49FE6434-CC06-471F-8B3B-914C86539FF6}"/>
-    <hyperlink ref="H9" r:id="rId7" display="https://www.amazon.co.jp/gp/product/B09C5NXC5Q" xr:uid="{14422F16-29C0-4F4D-9E8D-766632E6651E}"/>
-    <hyperlink ref="H14" r:id="rId8" xr:uid="{69933976-58FF-412F-B7E8-1865A7824E44}"/>
-    <hyperlink ref="H17" r:id="rId9" display="https://www.amazon.co.jp/gp/product/B0B7R3ZS98" xr:uid="{52F6BC03-8C68-45F7-8D71-F05D8DB2C60D}"/>
-    <hyperlink ref="H11" r:id="rId10" xr:uid="{C4D16929-F67E-40AC-B086-78B652A64E5F}"/>
-    <hyperlink ref="H10" r:id="rId11" xr:uid="{4857C565-5FFA-4E10-AD46-98E9E2AE88FC}"/>
+    <hyperlink ref="H11" r:id="rId7" display="https://www.amazon.co.jp/gp/product/B09C5NXC5Q" xr:uid="{14422F16-29C0-4F4D-9E8D-766632E6651E}"/>
+    <hyperlink ref="H16" r:id="rId8" xr:uid="{69933976-58FF-412F-B7E8-1865A7824E44}"/>
+    <hyperlink ref="H20" r:id="rId9" display="https://www.amazon.co.jp/gp/product/B0B7R3ZS98" xr:uid="{52F6BC03-8C68-45F7-8D71-F05D8DB2C60D}"/>
+    <hyperlink ref="H13" r:id="rId10" xr:uid="{C4D16929-F67E-40AC-B086-78B652A64E5F}"/>
+    <hyperlink ref="H12" r:id="rId11" xr:uid="{4857C565-5FFA-4E10-AD46-98E9E2AE88FC}"/>
     <hyperlink ref="H4" r:id="rId12" xr:uid="{617AFE0F-BE1C-4421-B220-3E22EE1EBA13}"/>
-    <hyperlink ref="H12" r:id="rId13" xr:uid="{E392D79C-4A01-464E-AEC2-8326946C2A5F}"/>
-    <hyperlink ref="H18" r:id="rId14" display="https://www.amazon.co.jp/gp/product/B0B7R3ZS98" xr:uid="{6D9E48F5-56B8-4C05-A3F6-DD89BFAAA5B8}"/>
+    <hyperlink ref="H14" r:id="rId13" xr:uid="{E392D79C-4A01-464E-AEC2-8326946C2A5F}"/>
+    <hyperlink ref="H21" r:id="rId14" display="https://www.amazon.co.jp/gp/product/B0B7R3ZS98" xr:uid="{6D9E48F5-56B8-4C05-A3F6-DD89BFAAA5B8}"/>
     <hyperlink ref="H6" r:id="rId15" xr:uid="{8ED699A0-1B6E-45D6-956E-26F4E989946F}"/>
-    <hyperlink ref="H16" r:id="rId16" xr:uid="{8FAA737D-D469-4A84-99D9-34126A9CBA94}"/>
-    <hyperlink ref="H15" r:id="rId17" xr:uid="{9F050A3E-F2F1-43D4-B068-6A02BB2D03C2}"/>
-    <hyperlink ref="H19" r:id="rId18" xr:uid="{6957A4E9-AAD7-422D-A329-4C904C992689}"/>
-    <hyperlink ref="H20" r:id="rId19" xr:uid="{E31958F9-D1C8-4D1C-AABD-87CFB88668EA}"/>
-    <hyperlink ref="H21" r:id="rId20" xr:uid="{9BD262C6-8E9C-403E-A8A3-D3515D355B7C}"/>
+    <hyperlink ref="H19" r:id="rId16" xr:uid="{8FAA737D-D469-4A84-99D9-34126A9CBA94}"/>
+    <hyperlink ref="H17" r:id="rId17" xr:uid="{9F050A3E-F2F1-43D4-B068-6A02BB2D03C2}"/>
+    <hyperlink ref="H22" r:id="rId18" xr:uid="{6957A4E9-AAD7-422D-A329-4C904C992689}"/>
+    <hyperlink ref="H23" r:id="rId19" xr:uid="{E31958F9-D1C8-4D1C-AABD-87CFB88668EA}"/>
+    <hyperlink ref="H24" r:id="rId20" xr:uid="{9BD262C6-8E9C-403E-A8A3-D3515D355B7C}"/>
+    <hyperlink ref="H9" r:id="rId21" display="https://www.tradeinn.com/techinn/ja/gn-%E3%83%98%E3%83%83%E3%83%89%E3%83%9B%E3%83%B3-jabra-engage-50-ii-usb-a/139430146/p?utm_source=google_products&amp;utm_medium=merchant&amp;id_producte=17985695&amp;country=jp&amp;gad=1&amp;gclid=CjwKCAjw9pGjBhB-EiwAa5jl3ApZNWvZBjzM7kTmOcdKvBpHWI25bFHyTNYcSZMpNg5LIJO3y5RJNRoCN_gQAvD_BwE" xr:uid="{D41E53BB-0189-4A0E-A24B-59886438BB13}"/>
+    <hyperlink ref="H10" r:id="rId22" display="https://www.amazon.co.jp/Audio-Technica-%E3%82%AA%E3%83%BC%E3%83%87%E3%82%A3%E3%82%AA%E3%83%86%E3%82%AF%E3%83%8B%E3%82%AB-%E3%82%B9%E3%83%88%E3%83%AA%E3%83%BC%E3%83%9F%E3%83%B3%E3%82%B0%E3%83%98%E3%83%83%E3%83%89%E3%82%BB%E3%83%83%E3%83%88-ATH-M50xSTS-USB/dp/B0BRP7SW25" xr:uid="{8F34E3E5-B4D2-44E9-B38A-57DA24BBB45B}"/>
+    <hyperlink ref="H18" r:id="rId23" xr:uid="{364FCDC9-73E3-405A-86ED-A78971F5A672}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId24"/>
   <tableParts count="1">
-    <tablePart r:id="rId22"/>
+    <tablePart r:id="rId25"/>
   </tableParts>
 </worksheet>
 </file>

--- a/データ.xlsx
+++ b/データ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\MicrophoneLevelLogger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897ACB3A-E182-47C2-B34C-4E67125634C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802554D2-E5D3-4CDC-B709-384B660DFB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D62692A6-2D1C-4E86-AC54-CA55A0F9CE04}"/>
+    <workbookView xWindow="5070" yWindow="5070" windowWidth="43200" windowHeight="23535" xr2:uid="{D62692A6-2D1C-4E86-AC54-CA55A0F9CE04}"/>
   </bookViews>
   <sheets>
     <sheet name="評価機器 購入情報" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="189">
   <si>
     <t>タイプ</t>
     <phoneticPr fontId="1"/>
@@ -852,6 +852,13 @@
   </si>
   <si>
     <t>https://www.amazon.co.jp/gp/product/B0BKZ1P229/ref=ppx_yo_dt_b_asin_title_o01_s00?ie=UTF8&amp;psc=1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総額</t>
+    <rPh sb="0" eb="2">
+      <t>ソウガク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -994,10 +1001,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D95B23E-1360-4D23-8FB9-41EF3ED67387}" name="テーブル7" displayName="テーブル7" ref="A1:H26" totalsRowCount="1">
-  <autoFilter ref="A1:H25" xr:uid="{478DC918-AA04-45C2-8395-65EE18C98D14}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D95B23E-1360-4D23-8FB9-41EF3ED67387}" name="テーブル7" displayName="テーブル7" ref="A1:H25" totalsRowCount="1">
+  <autoFilter ref="A1:H24" xr:uid="{478DC918-AA04-45C2-8395-65EE18C98D14}"/>
   <tableColumns count="8">
-    <tableColumn id="7" xr3:uid="{FBAB89E6-919D-4589-A3E1-4436B80B0023}" name="タイプ" totalsRowFunction="count"/>
+    <tableColumn id="7" xr3:uid="{FBAB89E6-919D-4589-A3E1-4436B80B0023}" name="タイプ" totalsRowLabel="総額"/>
     <tableColumn id="1" xr3:uid="{0E2071E5-90CD-4FFC-8765-6AB30A904584}" name="接続"/>
     <tableColumn id="8" xr3:uid="{B09D8EB7-8809-4AAF-8C71-B05665576284}" name="メーカー2"/>
     <tableColumn id="2" xr3:uid="{4C4A7367-6B4E-4BAF-8F28-302C15A3CAF7}" name="製品"/>
@@ -1379,10 +1386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C03CB1-1160-44D1-AB76-B119F97AD8A7}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection sqref="A1:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2018,16 +2025,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26">
-        <f>SUBTOTAL(103,テーブル7[タイプ])</f>
-        <v>23</v>
-      </c>
-      <c r="E26" s="2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>188</v>
+      </c>
+      <c r="E25" s="2">
         <f>SUBTOTAL(109,テーブル7[標準価格])</f>
         <v>222632</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F25" s="2">
         <f>SUBTOTAL(109,テーブル7[購入価格])</f>
         <v>179847.4</v>
       </c>
